--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.949600333333334</v>
+        <v>11.59547033333333</v>
       </c>
       <c r="H2">
-        <v>26.848801</v>
+        <v>34.786411</v>
       </c>
       <c r="I2">
-        <v>0.2240220633121465</v>
+        <v>0.2556603672772884</v>
       </c>
       <c r="J2">
-        <v>0.2240220633121465</v>
+        <v>0.2556603672772884</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.31197333333334</v>
+        <v>38.745275</v>
       </c>
       <c r="N2">
-        <v>78.93592000000001</v>
+        <v>116.235825</v>
       </c>
       <c r="O2">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="P2">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="Q2">
-        <v>235.4816453146578</v>
+        <v>449.2696868193416</v>
       </c>
       <c r="R2">
-        <v>2119.33480783192</v>
+        <v>4043.427181374075</v>
       </c>
       <c r="S2">
-        <v>0.05066391601654161</v>
+        <v>0.08079684025632833</v>
       </c>
       <c r="T2">
-        <v>0.0506639160165416</v>
+        <v>0.08079684025632831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.949600333333334</v>
+        <v>11.59547033333333</v>
       </c>
       <c r="H3">
-        <v>26.848801</v>
+        <v>34.786411</v>
       </c>
       <c r="I3">
-        <v>0.2240220633121465</v>
+        <v>0.2556603672772884</v>
       </c>
       <c r="J3">
-        <v>0.2240220633121465</v>
+        <v>0.2556603672772884</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>161.224525</v>
       </c>
       <c r="O3">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="P3">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="Q3">
-        <v>480.9650208938362</v>
+        <v>623.1580655477528</v>
       </c>
       <c r="R3">
-        <v>4328.685188044526</v>
+        <v>5608.422589929775</v>
       </c>
       <c r="S3">
-        <v>0.1034797059995857</v>
+        <v>0.1120689958696247</v>
       </c>
       <c r="T3">
-        <v>0.1034797059995856</v>
+        <v>0.1120689958696246</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.949600333333334</v>
+        <v>11.59547033333333</v>
       </c>
       <c r="H4">
-        <v>26.848801</v>
+        <v>34.786411</v>
       </c>
       <c r="I4">
-        <v>0.2240220633121465</v>
+        <v>0.2556603672772884</v>
       </c>
       <c r="J4">
-        <v>0.2240220633121465</v>
+        <v>0.2556603672772884</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.31221833333333</v>
+        <v>17.38482166666667</v>
       </c>
       <c r="N4">
-        <v>42.936655</v>
+        <v>52.154465</v>
       </c>
       <c r="O4">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="P4">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="Q4">
-        <v>128.0886339667395</v>
+        <v>201.5851838861239</v>
       </c>
       <c r="R4">
-        <v>1152.797705700655</v>
+        <v>1814.266654975115</v>
       </c>
       <c r="S4">
-        <v>0.02755829137040806</v>
+        <v>0.03625316013595005</v>
       </c>
       <c r="T4">
-        <v>0.02755829137040806</v>
+        <v>0.03625316013595005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.949600333333334</v>
+        <v>11.59547033333333</v>
       </c>
       <c r="H5">
-        <v>26.848801</v>
+        <v>34.786411</v>
       </c>
       <c r="I5">
-        <v>0.2240220633121465</v>
+        <v>0.2556603672772884</v>
       </c>
       <c r="J5">
-        <v>0.2240220633121465</v>
+        <v>0.2556603672772884</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.978693</v>
+        <v>12.72763533333333</v>
       </c>
       <c r="N5">
-        <v>65.93607899999999</v>
+        <v>38.182906</v>
       </c>
       <c r="O5">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="P5">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="Q5">
-        <v>196.700518199031</v>
+        <v>147.5829179211518</v>
       </c>
       <c r="R5">
-        <v>1770.304663791279</v>
+        <v>1328.246261290366</v>
       </c>
       <c r="S5">
-        <v>0.04232014992561121</v>
+        <v>0.02654137101538532</v>
       </c>
       <c r="T5">
-        <v>0.04232014992561121</v>
+        <v>0.02654137101538532</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>39.415186</v>
       </c>
       <c r="I6">
-        <v>0.328873952082703</v>
+        <v>0.2896792350628708</v>
       </c>
       <c r="J6">
-        <v>0.3288739520827031</v>
+        <v>0.2896792350628708</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.31197333333334</v>
+        <v>38.745275</v>
       </c>
       <c r="N6">
-        <v>78.93592000000001</v>
+        <v>116.235825</v>
       </c>
       <c r="O6">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="P6">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="Q6">
-        <v>345.6971076534579</v>
+        <v>509.0507402487166</v>
       </c>
       <c r="R6">
-        <v>3111.27396888112</v>
+        <v>4581.456662238449</v>
       </c>
       <c r="S6">
-        <v>0.07437679147312264</v>
+        <v>0.09154788882691775</v>
       </c>
       <c r="T6">
-        <v>0.07437679147312264</v>
+        <v>0.09154788882691774</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>39.415186</v>
       </c>
       <c r="I7">
-        <v>0.328873952082703</v>
+        <v>0.2896792350628708</v>
       </c>
       <c r="J7">
-        <v>0.3288739520827031</v>
+        <v>0.2896792350628708</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>161.224525</v>
       </c>
       <c r="O7">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="P7">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="Q7">
         <v>706.0771822929612</v>
@@ -883,10 +883,10 @@
         <v>6354.69464063665</v>
       </c>
       <c r="S7">
-        <v>0.1519126257890989</v>
+        <v>0.1269812030058084</v>
       </c>
       <c r="T7">
-        <v>0.1519126257890989</v>
+        <v>0.1269812030058084</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>39.415186</v>
       </c>
       <c r="I8">
-        <v>0.328873952082703</v>
+        <v>0.2896792350628708</v>
       </c>
       <c r="J8">
-        <v>0.3288739520827031</v>
+        <v>0.2896792350628708</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.31221833333333</v>
+        <v>17.38482166666667</v>
       </c>
       <c r="N8">
-        <v>42.936655</v>
+        <v>52.154465</v>
       </c>
       <c r="O8">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="P8">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="Q8">
-        <v>188.0395825603144</v>
+        <v>228.4086598561656</v>
       </c>
       <c r="R8">
-        <v>1692.35624304283</v>
+        <v>2055.67793870549</v>
       </c>
       <c r="S8">
-        <v>0.04045674815075834</v>
+        <v>0.04107710478802359</v>
       </c>
       <c r="T8">
-        <v>0.04045674815075834</v>
+        <v>0.04107710478802359</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>39.415186</v>
       </c>
       <c r="I9">
-        <v>0.328873952082703</v>
+        <v>0.2896792350628708</v>
       </c>
       <c r="J9">
-        <v>0.3288739520827031</v>
+        <v>0.2896792350628708</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.978693</v>
+        <v>12.72763533333333</v>
       </c>
       <c r="N9">
-        <v>65.93607899999999</v>
+        <v>38.182906</v>
       </c>
       <c r="O9">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="P9">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="Q9">
-        <v>288.764757543966</v>
+        <v>167.2207046678351</v>
       </c>
       <c r="R9">
-        <v>2598.882817895694</v>
+        <v>1504.986342010516</v>
       </c>
       <c r="S9">
-        <v>0.06212778666972323</v>
+        <v>0.03007303844212101</v>
       </c>
       <c r="T9">
-        <v>0.06212778666972323</v>
+        <v>0.03007303844212101</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.820198333333333</v>
+        <v>7.691597000000001</v>
       </c>
       <c r="H10">
-        <v>20.460595</v>
+        <v>23.074791</v>
       </c>
       <c r="I10">
-        <v>0.1707199032274919</v>
+        <v>0.1695866107574785</v>
       </c>
       <c r="J10">
-        <v>0.1707199032274919</v>
+        <v>0.1695866107574785</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.31197333333334</v>
+        <v>38.745275</v>
       </c>
       <c r="N10">
-        <v>78.93592000000001</v>
+        <v>116.235825</v>
       </c>
       <c r="O10">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="P10">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="Q10">
-        <v>179.4528766747111</v>
+        <v>298.013040954175</v>
       </c>
       <c r="R10">
-        <v>1615.0758900724</v>
+        <v>2682.117368587575</v>
       </c>
       <c r="S10">
-        <v>0.03860931691990532</v>
+        <v>0.05359478453742074</v>
       </c>
       <c r="T10">
-        <v>0.03860931691990532</v>
+        <v>0.05359478453742073</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.820198333333333</v>
+        <v>7.691597000000001</v>
       </c>
       <c r="H11">
-        <v>20.460595</v>
+        <v>23.074791</v>
       </c>
       <c r="I11">
-        <v>0.1707199032274919</v>
+        <v>0.1695866107574785</v>
       </c>
       <c r="J11">
-        <v>0.1707199032274919</v>
+        <v>0.1695866107574785</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>161.224525</v>
       </c>
       <c r="O11">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="P11">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="Q11">
-        <v>366.5277455658194</v>
+        <v>413.3580242721417</v>
       </c>
       <c r="R11">
-        <v>3298.749710092375</v>
+        <v>3720.222218449275</v>
       </c>
       <c r="S11">
-        <v>0.07885850676075225</v>
+        <v>0.07433847249351053</v>
       </c>
       <c r="T11">
-        <v>0.07885850676075223</v>
+        <v>0.07433847249351053</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.820198333333333</v>
+        <v>7.691597000000001</v>
       </c>
       <c r="H12">
-        <v>20.460595</v>
+        <v>23.074791</v>
       </c>
       <c r="I12">
-        <v>0.1707199032274919</v>
+        <v>0.1695866107574785</v>
       </c>
       <c r="J12">
-        <v>0.1707199032274919</v>
+        <v>0.1695866107574785</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.31221833333333</v>
+        <v>17.38482166666667</v>
       </c>
       <c r="N12">
-        <v>42.936655</v>
+        <v>52.154465</v>
       </c>
       <c r="O12">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="P12">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="Q12">
-        <v>97.61216762330278</v>
+        <v>133.7170421768683</v>
       </c>
       <c r="R12">
-        <v>878.5095086097249</v>
+        <v>1203.453379591815</v>
       </c>
       <c r="S12">
-        <v>0.02100127445623789</v>
+        <v>0.02404772637299603</v>
       </c>
       <c r="T12">
-        <v>0.02100127445623788</v>
+        <v>0.02404772637299603</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.820198333333333</v>
+        <v>7.691597000000001</v>
       </c>
       <c r="H13">
-        <v>20.460595</v>
+        <v>23.074791</v>
       </c>
       <c r="I13">
-        <v>0.1707199032274919</v>
+        <v>0.1695866107574785</v>
       </c>
       <c r="J13">
-        <v>0.1707199032274919</v>
+        <v>0.1695866107574785</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.978693</v>
+        <v>12.72763533333333</v>
       </c>
       <c r="N13">
-        <v>65.93607899999999</v>
+        <v>38.182906</v>
       </c>
       <c r="O13">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="P13">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="Q13">
-        <v>149.899045367445</v>
+        <v>97.89584174696068</v>
       </c>
       <c r="R13">
-        <v>1349.091408307005</v>
+        <v>881.0625757226461</v>
       </c>
       <c r="S13">
-        <v>0.03225080509059644</v>
+        <v>0.01760562735355119</v>
       </c>
       <c r="T13">
-        <v>0.03225080509059644</v>
+        <v>0.01760562735355119</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.041444</v>
+        <v>12.92951533333333</v>
       </c>
       <c r="H14">
-        <v>33.124332</v>
+        <v>38.788546</v>
       </c>
       <c r="I14">
-        <v>0.2763840813776585</v>
+        <v>0.2850737869023623</v>
       </c>
       <c r="J14">
-        <v>0.2763840813776585</v>
+        <v>0.2850737869023623</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.31197333333334</v>
+        <v>38.745275</v>
       </c>
       <c r="N14">
-        <v>78.93592000000001</v>
+        <v>116.235825</v>
       </c>
       <c r="O14">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="P14">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="Q14">
-        <v>290.5221800894934</v>
+        <v>500.9576272067167</v>
       </c>
       <c r="R14">
-        <v>2614.69962080544</v>
+        <v>4508.618644860449</v>
       </c>
       <c r="S14">
-        <v>0.06250589642911955</v>
+        <v>0.09009242013892273</v>
       </c>
       <c r="T14">
-        <v>0.06250589642911955</v>
+        <v>0.09009242013892271</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.041444</v>
+        <v>12.92951533333333</v>
       </c>
       <c r="H15">
-        <v>33.124332</v>
+        <v>38.788546</v>
       </c>
       <c r="I15">
-        <v>0.2763840813776585</v>
+        <v>0.2850737869023623</v>
       </c>
       <c r="J15">
-        <v>0.2763840813776585</v>
+        <v>0.2850737869023623</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>161.224525</v>
       </c>
       <c r="O15">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="P15">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="Q15">
-        <v>593.3838547380333</v>
+        <v>694.8516560322945</v>
       </c>
       <c r="R15">
-        <v>5340.454692642299</v>
+        <v>6253.664904290649</v>
       </c>
       <c r="S15">
-        <v>0.1276666372100812</v>
+        <v>0.124962399871109</v>
       </c>
       <c r="T15">
-        <v>0.1276666372100812</v>
+        <v>0.124962399871109</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.041444</v>
+        <v>12.92951533333333</v>
       </c>
       <c r="H16">
-        <v>33.124332</v>
+        <v>38.788546</v>
       </c>
       <c r="I16">
-        <v>0.2763840813776585</v>
+        <v>0.2850737869023623</v>
       </c>
       <c r="J16">
-        <v>0.2763840813776585</v>
+        <v>0.2850737869023623</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.31221833333333</v>
+        <v>17.38482166666667</v>
       </c>
       <c r="N16">
-        <v>42.936655</v>
+        <v>52.154465</v>
       </c>
       <c r="O16">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="P16">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="Q16">
-        <v>158.0275572432733</v>
+        <v>224.7773183064322</v>
       </c>
       <c r="R16">
-        <v>1422.24801518946</v>
+        <v>2022.99586475789</v>
       </c>
       <c r="S16">
-        <v>0.0339996558023627</v>
+        <v>0.04042404287061016</v>
       </c>
       <c r="T16">
-        <v>0.03399965580236269</v>
+        <v>0.04042404287061016</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.041444</v>
+        <v>12.92951533333333</v>
       </c>
       <c r="H17">
-        <v>33.124332</v>
+        <v>38.788546</v>
       </c>
       <c r="I17">
-        <v>0.2763840813776585</v>
+        <v>0.2850737869023623</v>
       </c>
       <c r="J17">
-        <v>0.2763840813776585</v>
+        <v>0.2850737869023623</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.978693</v>
+        <v>12.72763533333333</v>
       </c>
       <c r="N17">
-        <v>65.93607899999999</v>
+        <v>38.182906</v>
       </c>
       <c r="O17">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="P17">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="Q17">
-        <v>242.6765079526919</v>
+        <v>164.5621561994084</v>
       </c>
       <c r="R17">
-        <v>2184.088571574227</v>
+        <v>1481.059405794676</v>
       </c>
       <c r="S17">
-        <v>0.05221189193609505</v>
+        <v>0.02959492402172044</v>
       </c>
       <c r="T17">
-        <v>0.05221189193609505</v>
+        <v>0.02959492402172044</v>
       </c>
     </row>
   </sheetData>
